--- a/ESPN sports website/IPL/Lucknow Super Giants/Mohsin Khan.xlsx
+++ b/ESPN sports website/IPL/Lucknow Super Giants/Mohsin Khan.xlsx
@@ -445,31 +445,31 @@
         <v>Mohsin Khan</v>
       </c>
       <c r="C2" t="str">
+        <v>9</v>
+      </c>
+      <c r="D2" t="str">
+        <v>7</v>
+      </c>
+      <c r="E2" t="str">
         <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>3</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>33.33</v>
+        <v>128.57</v>
       </c>
       <c r="H2" t="str">
-        <v>Gujarat Titans</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>May 10, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Titans won by 62 runs</v>
+        <v>Royals won by 24 runs</v>
       </c>
     </row>
     <row r="3">
@@ -515,31 +515,31 @@
         <v>Mohsin Khan</v>
       </c>
       <c r="C4" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>128.57</v>
+        <v>33.33</v>
       </c>
       <c r="H4" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J4" t="str">
-        <v>May 15, 2022</v>
+        <v>May 10, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Royals won by 24 runs</v>
+        <v>Titans won by 62 runs</v>
       </c>
     </row>
   </sheetData>
